--- a/tables/Table 3.xlsx
+++ b/tables/Table 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael.studivan/Documents/GitHub/SCTLD-intervention-transcriptomics/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F9C5F9F-97A5-F445-A399-60F5292A22F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57A2C7CC-6149-BC48-A2C8-32A2C0B88984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{93C6C980-49CD-D348-952A-BD036265BC4F}"/>
+    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{EE9EF8E4-A72E-1442-A4A2-2F0657E67FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Experiment</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>Species</t>
   </si>
   <si>
@@ -47,7 +42,7 @@
     <t>df</t>
   </si>
   <si>
-    <t>F</t>
+    <t>Test Statistic</t>
   </si>
   <si>
     <r>
@@ -80,6 +75,9 @@
     <t>Transmission</t>
   </si>
   <si>
+    <t>PERMANOVA</t>
+  </si>
+  <si>
     <t>Montastraea cavernosa</t>
   </si>
   <si>
@@ -146,13 +144,22 @@
     <t>Intervention</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>time:treat</t>
-  </si>
-  <si>
-    <t>Cladocopium spp.</t>
+    <t>DAPC</t>
+  </si>
+  <si>
+    <t>treated1_diseased0</t>
+  </si>
+  <si>
+    <t>healthy0_diseased0</t>
+  </si>
+  <si>
+    <t>healthy1_diseased0</t>
+  </si>
+  <si>
+    <t>MCMC</t>
+  </si>
+  <si>
+    <t>treated1_healthy1</t>
   </si>
 </sst>
 </file>
@@ -257,17 +264,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -277,9 +290,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -295,6 +305,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -302,6 +313,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -617,24 +631,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F82D5E-178E-BB49-9966-E778320F2740}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AD56C0-9C7B-F540-81BB-A1B4862D8614}">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,296 +663,307 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5">
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7">
         <v>19</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="7">
         <v>1.9550000000000001</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="7">
         <v>0.62819999999999998</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2.4889999999999999</v>
+      </c>
+      <c r="G3" s="7">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1.1746000000000001</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.56069999999999998</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2.3800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1.7443</v>
+      </c>
+      <c r="G5" s="7">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1.2049000000000001</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.56410000000000005</v>
+      </c>
+      <c r="H6" s="9">
+        <v>5.7299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1.6927000000000001</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>5.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.59450000000000003</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1.2558</v>
+      </c>
+      <c r="G9" s="12">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2.4889999999999999</v>
-      </c>
-      <c r="F3" s="5">
-        <v>8.4199999999999997E-2</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="7" t="s">
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1.1746000000000001</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.56069999999999998</v>
-      </c>
-      <c r="G4" s="8">
-        <v>2.3800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1.7443</v>
-      </c>
-      <c r="F5" s="5">
-        <v>8.7599999999999997E-2</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1.6000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1.2049000000000001</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.56410000000000005</v>
-      </c>
-      <c r="G6" s="8">
-        <v>5.7299999999999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1.6927000000000001</v>
-      </c>
-      <c r="F7" s="5">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="G7" s="8">
-        <v>5.5800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.59450000000000003</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11">
-        <v>1.2558</v>
-      </c>
-      <c r="F9" s="11">
-        <v>3.5700000000000003E-2</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1.2422</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.96150000000000002</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1.72E-2</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1.47E-2</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1.2322</v>
-      </c>
-      <c r="F13" s="5">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="7"/>
       <c r="C14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.95540000000000003</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1.7100000000000001E-2</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="13">
-        <v>1</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0.82640000000000002</v>
-      </c>
-      <c r="F15" s="15">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>16</v>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="9">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
